--- a/report_ca_nhan/NV-4 Thạch Hoàng Nhân 6-2024.xlsx
+++ b/report_ca_nhan/NV-4 Thạch Hoàng Nhân 6-2024.xlsx
@@ -8,12 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Đơn thu nợ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Đơn thu nợ" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +523,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -604,6 +609,12 @@
       <c r="T2" t="n">
         <v/>
       </c>
+      <c r="U2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -684,6 +695,12 @@
       <c r="T3" t="n">
         <v/>
       </c>
+      <c r="U3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -764,6 +781,12 @@
       <c r="T4" t="n">
         <v/>
       </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -846,6 +869,12 @@
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
+      <c r="U5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -928,6 +957,12 @@
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
+      <c r="U6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1007,6 +1042,60 @@
       </c>
       <c r="T7" t="n">
         <v/>
+      </c>
+      <c r="U7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>130000000</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>130000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>82000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>94000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>550000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>250000</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1036,611 +1125,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
           <t>Mã đơn thu nợ</t>
         </is>
       </c>
@@ -1834,6 +1318,23 @@
           <t>06-30-2024</t>
         </is>
       </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>59000000</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
